--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.006</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.511</v>
+        <v>17.112</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.773</v>
+        <v>13.173</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.159</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.146</v>
+        <v>8.500999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.680448538673048</v>
+        <v>4.78790550173019</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.68577194682561</v>
+        <v>7.849265182054818</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.50883380718764</v>
+        <v>16.00039064952579</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.917040255098669</v>
+        <v>-6.634884415692984</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.89775067965083</v>
+        <v>7.688244778826668</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.96027078248447</v>
+        <v>11.0157519534513</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.09127327731222</v>
+        <v>-4.247358563330781</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.09933521972714</v>
+        <v>21.08163631579529</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.98119055474936</v>
+        <v>24.73408012025573</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.61005133582728</v>
+        <v>13.58913281335351</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.94627981032248</v>
+        <v>19.55860107720613</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.28408019571339</v>
+        <v>21.68647541081636</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.39327455444106</v>
+        <v>3.866826987219138</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.92334054601234</v>
+        <v>7.424572762938155</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.41535749109978</v>
+        <v>17.53502309431894</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.54366126062453</v>
+        <v>10.89758367923874</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.73460700471476</v>
+        <v>20.42625914791381</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.73718600513605</v>
+        <v>25.64904113204602</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.160252899377376</v>
+        <v>-1.670998272099677</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.28135796086254</v>
+        <v>9.017544305922787</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.57984026536494</v>
+        <v>13.49595041665964</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.6571339040126</v>
+        <v>-1.898205790810639</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.87016334847191</v>
+        <v>22.85581466801291</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.91155849978394</v>
+        <v>4.408042042754797</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.98947049419395</v>
+        <v>14.62171085133265</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.80741875017595</v>
+        <v>20.10664757404108</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.257314072508414</v>
+        <v>-5.413919073095865</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.3213020555213</v>
+        <v>20.26604818396256</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.37806508059638</v>
+        <v>22.07032730874007</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.52074045092534</v>
+        <v>-2.306258856786393</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.60055477051059</v>
+        <v>34.14167746018187</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.47706189034296</v>
+        <v>36.02604046472786</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.05669769673688</v>
+        <v>36.29167367058047</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.40467838368361</v>
+        <v>41.23133634847467</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.74767186278709</v>
+        <v>41.52748669877059</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.73070336209823</v>
+        <v>8.70822055313317</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.35752470505334</v>
+        <v>28.34875992114428</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.84078549171214</v>
+        <v>33.35651216028944</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.78034540400699</v>
+        <v>12.48688142766171</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.04457262733878</v>
+        <v>30.64988598830599</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.0430184470488</v>
+        <v>34.92909203171004</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.50471891181671</v>
+        <v>2.997211522199173</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.70957301356374</v>
+        <v>27.33476510224712</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.00336287290087</v>
+        <v>32.4974670608659</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.09225402786132</v>
+        <v>5.747024047510909</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>33.37776029790847</v>
+        <v>44.7623819989724</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.18210833594175</v>
+        <v>-0.8035554171959411</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.2636780042973</v>
+        <v>10.07740895224839</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.07974195229702</v>
+        <v>17.28839334588432</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8.56359832077338</v>
+        <v>-7.146403770893389</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.63273998497324</v>
+        <v>18.71411144644122</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.68797952458814</v>
+        <v>22.5336177672206</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14.8367560143871</v>
+        <v>-4.275009846751917</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.92010345929432</v>
+        <v>33.14824164976835</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.79457744631478</v>
+        <v>37.3258672039585</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.36608247368852</v>
+        <v>36.85644778028708</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.71012849816336</v>
+        <v>40.4787384372347</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.05425560256012</v>
+        <v>42.8729976585916</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.02535308869644</v>
+        <v>2.245477974926946</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.66143518640543</v>
+        <v>24.92003855517189</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>40.14171300057924</v>
+        <v>31.37890339462079</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14.04948175816654</v>
+        <v>6.972381583284754</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.3172570056699</v>
+        <v>25.77432761724516</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.31399326920958</v>
+        <v>32.46526079326334</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.80937493308974</v>
+        <v>-0.1901785448642421</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.01926113634958</v>
+        <v>24.33848835501225</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.31167705020977</v>
+        <v>32.40369699944949</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>17.40660626506889</v>
+        <v>2.695481524446127</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.69552231281667</v>
+        <v>42.79211098583723</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.33767631274247</v>
+        <v>-2.541532351834981</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.40452026899931</v>
+        <v>6.708244462027015</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.23177446641596</v>
+        <v>17.84063623916909</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.651524620403272</v>
+        <v>-5.592459499617359</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.70136814382619</v>
+        <v>16.99604943576654</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.76886250637596</v>
+        <v>24.63111912762716</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.87963807003347</v>
+        <v>-4.534290149785274</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.94875502489006</v>
+        <v>29.69488656546211</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.83464913875116</v>
+        <v>37.84591156149541</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.43133453662382</v>
+        <v>29.27117627717858</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.77940699578147</v>
+        <v>32.7541708144378</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.12790543410135</v>
+        <v>39.02276542145311</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.12650907720019</v>
+        <v>1.274919270982959</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.73818106097396</v>
+        <v>20.51857388500812</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.23336161335703</v>
+        <v>33.0614862589357</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.20523385071904</v>
+        <v>4.292528752586097</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.45816829445275</v>
+        <v>21.58048772143146</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.46579368186389</v>
+        <v>31.08121482925014</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9.89708984279185</v>
+        <v>-0.4786269989812091</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.08762956932853</v>
+        <v>19.95506052827209</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.39203016038209</v>
+        <v>30.39648635101019</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.44883486123841</v>
+        <v>-0.8161681934156491</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.72341827880917</v>
+        <v>35.01469735739754</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.9172797320191</v>
+        <v>30.72964962869948</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.16988540306452</v>
+        <v>21.36703650645915</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.97540807847077</v>
+        <v>33.30436125006568</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.34251749884535</v>
+        <v>35.28021806601716</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.06729085699656</v>
+        <v>5.385709715741609</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>37.366201724136</v>
+        <v>22.00575256617021</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.88374257310393</v>
+        <v>27.68970328178399</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.02442185516458</v>
+        <v>13.09767858100368</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.85668491148506</v>
+        <v>24.46316461335069</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.27341641522853</v>
+        <v>34.74401174827411</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.65987406109264</v>
+        <v>-4.243105481948074</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.59056260181321</v>
+        <v>11.62928179735085</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>39.31360557779658</v>
+        <v>18.51569223343523</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.21202429172658</v>
+        <v>-3.184274438221397</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.03445894664014</v>
+        <v>30.51397911453713</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.52361779973373</v>
+        <v>43.35485316759113</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>45.43478286504105</v>
+        <v>31.73647160683461</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.36747699680632</v>
+        <v>45.74695914020852</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>55.97222171065378</v>
+        <v>51.88285819720049</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.13011722092759</v>
+        <v>3.878217433307505</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>47.11817181172752</v>
+        <v>29.68805778393238</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.26593397049245</v>
+        <v>40.00479484318343</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.42051313904186</v>
+        <v>53.23839116593786</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.61910004975854</v>
+        <v>48.61439250653359</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.43701201624395</v>
+        <v>57.16305415896441</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>46.81001572083987</v>
+        <v>58.0727359898038</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.40932201152151</v>
+        <v>16.64285746884519</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.80708774866269</v>
+        <v>52.77619250403973</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43.31723886417525</v>
+        <v>55.42320099578166</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.3196442673721</v>
+        <v>17.89905022310212</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.22655132858411</v>
+        <v>40.22060972644903</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.6382209184119</v>
+        <v>46.52657750402311</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>18.06788428464385</v>
+        <v>6.087020888102302</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.08404317604776</v>
+        <v>39.61164790769932</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>40.80178003307336</v>
+        <v>43.64370113068421</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.71396884102601</v>
+        <v>10.35376209990714</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>42.61021003833253</v>
+        <v>61.43941602269086</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.09407221962871</v>
+        <v>70.18665374925827</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.95189316140838</v>
+        <v>72.51979542876822</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>53.89611393729759</v>
+        <v>80.50575160260877</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>57.50495779885371</v>
+        <v>84.642225692091</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.53823512416006</v>
+        <v>24.57571642355437</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>48.62540499997733</v>
+        <v>73.72714207604194</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>53.76513150387224</v>
+        <v>77.29715105095244</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.73643192041283</v>
+        <v>54.41514263502357</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.92546507981029</v>
+        <v>44.80632251755812</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.73924942286184</v>
+        <v>51.88701785998759</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>47.11358387133394</v>
+        <v>56.07725825643403</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.7022082410372</v>
+        <v>9.314809825205952</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.10895712019622</v>
+        <v>49.26958506806612</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.61651771958577</v>
+        <v>54.10092387562338</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.60181850066711</v>
+        <v>12.47018796762871</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.51231506520804</v>
+        <v>36.50385863555131</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.92158269129051</v>
+        <v>44.56298736388915</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>18.38666397642515</v>
+        <v>3.452165416881002</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.4078479518923</v>
+        <v>38.58824964376824</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>41.12358390980859</v>
+        <v>44.77669886260858</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.04273607802212</v>
+        <v>8.207664661502928</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>42.94245615497323</v>
+        <v>61.62204962076756</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>47.42375622417411</v>
+        <v>72.42264466327451</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>47.27138108957243</v>
+        <v>72.95250121683283</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>54.21118148056876</v>
+        <v>79.41838834529335</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>57.8205280577693</v>
+        <v>86.20105675298198</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.84415622922295</v>
+        <v>18.55227414515388</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>48.94008045008991</v>
+        <v>73.12677823473605</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.07646428436156</v>
+        <v>78.62391283176353</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.77541980866812</v>
+        <v>49.20000484415366</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.99177647824048</v>
+        <v>29.69780701581909</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.81003812319786</v>
+        <v>38.17466004686908</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.18833486341978</v>
+        <v>46.56997578751566</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.80373079848026</v>
+        <v>5.440963841354684</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.18618638775723</v>
+        <v>41.87763918145995</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.70780009552459</v>
+        <v>50.86786892460911</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.7387655810512</v>
+        <v>11.73936566931714</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.63482071086088</v>
+        <v>34.60409663603424</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.05636324025971</v>
+        <v>47.30155536211106</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.45259034877921</v>
+        <v>4.177496192261135</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.45490884493</v>
+        <v>34.80835381947709</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.18385866281332</v>
+        <v>45.61861097714015</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.06343826299791</v>
+        <v>6.187795351761089</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.9491869472961</v>
+        <v>55.45306588939951</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.44302054580842</v>
+        <v>71.31669370664787</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>46.31862940545264</v>
+        <v>60.30464064829988</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.26380549580408</v>
+        <v>71.02729841804498</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.87861457221337</v>
+        <v>82.55519770665742</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.92509302663146</v>
+        <v>13.66596666656731</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>47.99791862649039</v>
+        <v>64.2714419093716</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.15002929852815</v>
+        <v>77.1943742072077</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-27.65263436824426</v>
+        <v>7.983782231806522</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-13.31933162274599</v>
+        <v>7.550896603724105</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-9.825171221578259</v>
+        <v>14.83681710609788</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-31.53488585462834</v>
+        <v>-6.318698676188905</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-16.36889197917897</v>
+        <v>3.934836510669665</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-12.6487817352882</v>
+        <v>6.689033231670717</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-28.2761332263815</v>
+        <v>-0.7187973087290125</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-13.93546425628868</v>
+        <v>17.2191853400589</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-10.38895899365066</v>
+        <v>21.42693927323169</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-7.031919304452032</v>
+        <v>10.78714453570933</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-1.451263993960126</v>
+        <v>16.86178943939918</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1.73234789175514</v>
+        <v>19.82765881048116</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-21.29606242129543</v>
+        <v>7.718995428159534</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-4.835696131071259</v>
+        <v>6.994875413811641</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-0.645483425968763</v>
+        <v>17.41767877959106</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-24.83871050975294</v>
+        <v>11.03140796200627</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-10.33599744847272</v>
+        <v>17.11557565913013</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-6.642551767364111</v>
+        <v>24.47700279508001</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-29.31698248293138</v>
+        <v>-3.884999003274711</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-14.02326750043518</v>
+        <v>2.532807072489344</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-10.04865472707678</v>
+        <v>8.692127590223318</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-25.76992506949827</v>
+        <v>-2.955674560369864</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-11.2428979041383</v>
+        <v>14.39483167257496</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-26.57265604851064</v>
+        <v>8.236122545806364</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-12.17345895186475</v>
+        <v>14.52749008172762</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-8.683431616960618</v>
+        <v>19.98686507758177</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-30.35543797796382</v>
+        <v>-4.531326078227224</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-15.11391494660144</v>
+        <v>16.11316490698426</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-11.39850955983411</v>
+        <v>18.32680487409251</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-27.01752822535465</v>
+        <v>2.065574422071453</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-12.61172123789808</v>
+        <v>30.37217934904352</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-9.06955096981055</v>
+        <v>33.67824049630403</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-5.752556239623672</v>
+        <v>33.46510597043508</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-0.1613693289823033</v>
+        <v>39.1970207698371</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>3.026923118392403</v>
+        <v>40.75434925138207</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-20.11491761092846</v>
+        <v>14.71843536060509</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-3.566896991191399</v>
+        <v>28.55106509436619</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.6158499423836759</v>
+        <v>35.17879855449691</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-23.75343149155835</v>
+        <v>13.59936493618391</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-9.18411351081312</v>
+        <v>27.87175931533932</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-5.493841117237338</v>
+        <v>35.06908846490562</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-28.13374149696746</v>
+        <v>1.909680456244356</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-12.7639913524652</v>
+        <v>20.88094319360956</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-8.793032011836218</v>
+        <v>28.63546209705586</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-24.50612705108747</v>
+        <v>6.022700556637464</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-9.913219096302555</v>
+        <v>36.70563484497519</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-26.29714708332217</v>
+        <v>2.274412129559636</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-11.89449084818968</v>
+        <v>9.338904019410101</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-8.405928966359951</v>
+        <v>16.46527145640784</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-30.04622226725526</v>
+        <v>-7.199589643481506</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-14.79986816246318</v>
+        <v>13.70656065954609</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-11.08558162052846</v>
+        <v>17.96627469873248</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-26.69773605731926</v>
+        <v>-0.9080171876772134</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-12.28859053573288</v>
+        <v>28.50518060370521</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-8.748022073385172</v>
+        <v>34.02455593997608</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-5.440841096539373</v>
+        <v>32.78227840457374</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.1469092672423074</v>
+        <v>37.40966305999579</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3.336222955380819</v>
+        <v>41.0145510379997</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-19.81776408935704</v>
+        <v>7.848384024431894</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-3.261153375351441</v>
+        <v>24.50137525776066</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.9191500967147448</v>
+        <v>32.71229180021128</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-23.47927362402091</v>
+        <v>7.46228319792635</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-8.906580657007595</v>
+        <v>22.42158483508227</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-5.217615779222754</v>
+        <v>32.02688948634058</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-27.82610602122516</v>
+        <v>-1.957621211171809</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-12.45162072171452</v>
+        <v>17.22723103973644</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-8.481640990121491</v>
+        <v>27.98582661194867</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-24.18792398053698</v>
+        <v>2.194973383585186</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-9.59177313055784</v>
+        <v>34.02073514782327</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-27.11611501264238</v>
+        <v>-1.015440329478391</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-12.72717209431586</v>
+        <v>4.428828392498595</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-9.228621878107603</v>
+        <v>14.83195577823879</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-30.92912069128577</v>
+        <v>-7.25774278663501</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-15.70068343675379</v>
+        <v>10.62717492812873</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-11.97542009510015</v>
+        <v>17.97972035142465</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-27.62459672964032</v>
+        <v>-2.957469739753297</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-13.22871004020556</v>
+        <v>23.44431027185319</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-9.677951978649233</v>
+        <v>32.27972435492131</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-6.344422193933084</v>
+        <v>23.29314225225092</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-0.7532884163735076</v>
+        <v>27.08998430355064</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2.440445138871851</v>
+        <v>34.35313728671628</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-20.6869259409183</v>
+        <v>3.782564954983261</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-4.153021937622739</v>
+        <v>17.27767245068041</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.04084210491608076</v>
+        <v>30.72254575538731</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-24.29786336805657</v>
+        <v>4.35147836196948</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-9.739036598313305</v>
+        <v>17.68931749354341</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-6.040329693796807</v>
+        <v>29.78651696705822</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-28.7088712656744</v>
+        <v>-2.594801839944882</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-13.35239509356578</v>
+        <v>12.70159701785002</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-9.371657757077244</v>
+        <v>25.59996447967752</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-25.11510972898816</v>
+        <v>-1.719172623822608</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-10.53236220867234</v>
+        <v>26.03030059214226</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-7.508360141696514</v>
+        <v>25.29509948725737</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-4.562957487069852</v>
+        <v>12.66520491295553</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1.467325998389668</v>
+        <v>24.85557059860064</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>4.696256812369</v>
+        <v>30.21012373986387</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-18.75974423631442</v>
+        <v>1.821983661021754</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-1.570906525192285</v>
+        <v>13.85870649157949</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2.673199767032912</v>
+        <v>23.36066562216529</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-17.41744763222589</v>
+        <v>15.15595944387295</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-2.344525432110288</v>
+        <v>21.96909639998424</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1.6807788190075</v>
+        <v>32.40140701439759</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-21.81766358139356</v>
+        <v>-3.766915526806255</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-5.801761985513977</v>
+        <v>6.667265636563336</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-1.479944067393888</v>
+        <v>13.92977277544848</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-17.27433158468661</v>
+        <v>-1.374152025422202</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-2.205216699473553</v>
+        <v>23.18815488380772</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1.88193766599359</v>
+        <v>37.27173569318909</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5.459972692333217</v>
+        <v>25.02704100143768</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.58055007278691</v>
+        <v>37.50289869493896</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14.98345160389149</v>
+        <v>44.75983553036881</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-9.82004920080233</v>
+        <v>5.13304727905345</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>7.957097562144732</v>
+        <v>21.80905106289691</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>12.73639336497038</v>
+        <v>35.13623768760377</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-6.182052160341527</v>
+        <v>49.00196358785622</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-3.2813177434073</v>
+        <v>40.08940233413585</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>2.760140851865359</v>
+        <v>49.98244757588056</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>5.994470954995236</v>
+        <v>54.57651913299917</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-17.57451449325337</v>
+        <v>15.47140050107257</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-0.295951723464654</v>
+        <v>45.45755296720699</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>3.941990670040596</v>
+        <v>53.00047776266514</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-16.2770238479109</v>
+        <v>21.67953293260437</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-1.136414732808731</v>
+        <v>38.751643069594</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>2.884902679285815</v>
+        <v>46.24570801866054</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-20.57468287267416</v>
+        <v>7.652569335167613</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-4.481364899820122</v>
+        <v>34.20143122633141</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-0.1637223482263863</v>
+        <v>39.87528575404476</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-15.94763717057234</v>
+        <v>13.5939622654229</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-0.8115888421012158</v>
+        <v>54.31723218801699</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>3.271376200261471</v>
+        <v>65.48952236916115</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>6.80522040395951</v>
+        <v>65.43497263310526</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>12.93607288268326</v>
+        <v>73.19549099156801</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.34275498359491</v>
+        <v>78.81484672453603</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-8.57288481785055</v>
+        <v>28.04778073107154</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>9.293978485645425</v>
+        <v>65.88418846857851</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.06655792549599</v>
+        <v>74.08098259383162</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-5.862037952216866</v>
+        <v>49.4493395815829</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.97245552239248</v>
+        <v>35.55556207897083</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>3.06539820632257</v>
+        <v>44.20317740838813</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>6.300942400719634</v>
+        <v>51.99753837391137</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-17.27900569813801</v>
+        <v>7.993140417654043</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.007915382635701462</v>
+        <v>41.51114932049489</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>4.243767968222954</v>
+        <v>51.36587623519549</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-15.99118592455731</v>
+        <v>15.86952098856727</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-0.8471627765766385</v>
+        <v>34.67411343237502</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>3.172253855607238</v>
+        <v>43.966888997486</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-20.2544385255306</v>
+        <v>4.56733689137587</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-4.156389893211085</v>
+        <v>32.67229973495619</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.1597252053582991</v>
+        <v>40.63470086338039</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-15.61653163778024</v>
+        <v>10.83133201041932</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-0.4771772802329934</v>
+        <v>53.91933556307397</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>3.603745078784499</v>
+        <v>67.20844521934075</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>7.125840701817836</v>
+        <v>65.01371183955011</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>13.25282746829112</v>
+        <v>71.49596957723263</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.65999509621138</v>
+        <v>79.73379348083307</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-8.265755997555786</v>
+        <v>21.9491594201434</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>9.609271931543582</v>
+        <v>64.7809064308546</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>14.37910444397081</v>
+        <v>75.063906279685</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-6.792705802994803</v>
+        <v>43.71088469014236</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-3.874786658988754</v>
+        <v>20.71599106988521</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>2.166860126383227</v>
+        <v>29.69312163342154</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.40643283559028</v>
+        <v>41.70718723753648</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-18.14758513945891</v>
+        <v>2.426779964896472</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-0.8833087961867392</v>
+        <v>32.59304900605999</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>3.365357251935137</v>
+        <v>46.29622871177927</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-16.82684321702446</v>
+        <v>13.23790559130503</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1.696261393589964</v>
+        <v>30.82802374236441</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.334065108974258</v>
+        <v>44.27188324886108</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-21.1569520654426</v>
+        <v>3.839774562376014</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-5.076397361721206</v>
+        <v>27.80120859599842</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.7484944651161669</v>
+        <v>39.83940837411853</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-16.56325164594655</v>
+        <v>7.113082532833648</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-1.436908723426555</v>
+        <v>46.3166830596392</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2.655146604707738</v>
+        <v>64.1496874052268</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>6.206311747247184</v>
+        <v>51.11839074828359</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.33794096280992</v>
+        <v>60.62650508702062</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>15.75041224065964</v>
+        <v>73.59415603796927</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-9.152870461568824</v>
+        <v>14.23140462934627</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>8.700653930917284</v>
+        <v>53.45736533249855</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.48474208413487</v>
+        <v>70.33136302063348</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-13.37318257844885</v>
+        <v>9.933917378653636</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1.158063653772487</v>
+        <v>15.30972369120623</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.572006033034398</v>
+        <v>21.12583752024769</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-16.84852557589551</v>
+        <v>-4.913247026734062</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1.482486157550682</v>
+        <v>7.860691709153397</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>2.147747533290243</v>
+        <v>10.31898104358075</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-12.68340168435381</v>
+        <v>0.1143604906834561</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1.860927534217552</v>
+        <v>22.80814188351265</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>5.321290574980615</v>
+        <v>26.21006735307679</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>7.461106311512346</v>
+        <v>17.31320815862116</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>13.26785138122634</v>
+        <v>23.86541489433328</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.3542723108218</v>
+        <v>26.43867653045596</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-7.516605068215966</v>
+        <v>4.137120388082057</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>9.450115059910374</v>
+        <v>13.35281609587447</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>13.47449360275766</v>
+        <v>20.75895522519667</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-10.94976649014241</v>
+        <v>10.88781301429302</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>3.735315946463857</v>
+        <v>20.40794170339592</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>7.34780259068684</v>
+        <v>27.108901030314</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-15.00732684088872</v>
+        <v>-3.065222402552156</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.468387719582239</v>
+        <v>4.525274335457372</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>4.351774382514989</v>
+        <v>11.02192485617606</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-10.57265069665866</v>
+        <v>-2.201362790672324</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>4.14211962943088</v>
+        <v>17.88734472721052</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-12.28153733153384</v>
+        <v>10.61616495108788</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2.31627678344941</v>
+        <v>23.03643848509786</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>5.72564593366728</v>
+        <v>26.66972018202468</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-15.65735960309159</v>
+        <v>-2.07131585654772</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-0.2150944402101373</v>
+        <v>21.29081720195343</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>3.410003128609205</v>
+        <v>22.76684690108904</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-11.41241967081862</v>
+        <v>3.743838663050077</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>3.197747503960329</v>
+        <v>37.07967312877479</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>6.653304110602491</v>
+        <v>39.16561785249013</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.751113892688686</v>
+        <v>40.33858451253122</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>14.56833073750887</v>
+        <v>46.32777288701988</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>17.65938214530262</v>
+        <v>47.18584100019391</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-6.325707621051365</v>
+        <v>10.81928627038916</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>10.73009513747538</v>
+        <v>35.20695806658365</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>14.74657613572904</v>
+        <v>38.37668807517527</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-9.85340116470833</v>
+        <v>13.2982322170597</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>4.898889359198421</v>
+        <v>31.36298030830631</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>8.507783502165623</v>
+        <v>37.58946563401207</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-13.81282584110573</v>
+        <v>2.844126421879675</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1.739538196792367</v>
+        <v>23.18977568147498</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>5.618864195219459</v>
+        <v>30.91784034935848</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-9.296990987743982</v>
+        <v>6.681796622300045</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.484285775595076</v>
+        <v>40.40584712354677</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-12.01524912752294</v>
+        <v>4.931021796678024</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.585903134378924</v>
+        <v>17.88757221842663</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>5.9937838794567</v>
+        <v>23.24353357055238</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-15.35772130832599</v>
+        <v>-4.433035635077825</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.08924672113424492</v>
+        <v>18.97533572417355</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>3.713232580894243</v>
+        <v>22.52323970006829</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-11.10285632668719</v>
+        <v>1.096162133669672</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.510529898136184</v>
+        <v>35.27676948454819</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>6.964460326382877</v>
+        <v>39.61465781520554</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>9.053081467644873</v>
+        <v>39.68572811752753</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.86660115566774</v>
+        <v>44.5617679488755</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.95870783864101</v>
+        <v>47.44268410651553</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-6.037581779917986</v>
+        <v>4.26704547645075</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.02658190443151</v>
+        <v>31.25952396783484</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>15.0405872088723</v>
+        <v>35.92910302573864</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-9.588249439916538</v>
+        <v>7.208428155127297</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.167294405097053</v>
+        <v>25.76434303070097</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>8.774861122048904</v>
+        <v>34.43227748371596</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-13.5145459941802</v>
+        <v>-1.025907495279061</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2.04242377151175</v>
+        <v>19.33916166922298</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>5.920780482495573</v>
+        <v>30.08112196776267</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-8.988790325658826</v>
+        <v>2.899660191464665</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>5.79560893710827</v>
+        <v>37.53226090104032</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-12.81650864712299</v>
+        <v>2.259553385526022</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.770851427262713</v>
+        <v>13.05904510297148</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>5.188837000703074</v>
+        <v>22.05118823415596</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-16.22230155158739</v>
+        <v>-4.375163687809732</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.7933422510787693</v>
+        <v>15.62521524992117</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2.841718672057667</v>
+        <v>22.65717747730978</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-12.01021021266642</v>
+        <v>-0.5633318077401697</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2.589833331469833</v>
+        <v>30.06108615497467</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>6.054076880396394</v>
+        <v>38.11376168808987</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>8.168167502439481</v>
+        <v>30.40686265915504</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>13.98554904559531</v>
+        <v>34.90794161559013</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.08187789652591</v>
+        <v>41.67273637281578</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-6.888726150605251</v>
+        <v>1.712360131336506</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>10.15276777156849</v>
+        <v>24.87189799132972</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>14.18026563307094</v>
+        <v>35.01337473340095</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-10.38952521893552</v>
+        <v>4.205241603032356</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>4.352085269511392</v>
+        <v>20.51379388565415</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>7.969495728416469</v>
+        <v>31.98990171653642</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-14.37944305755111</v>
+        <v>-1.943429933219218</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1.159441101135045</v>
+        <v>14.06820472184028</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>5.048634568485987</v>
+        <v>27.22226689089081</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-9.896919734655995</v>
+        <v>-1.059691418527816</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.874005557382375</v>
+        <v>28.84459565341084</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>7.789670789154059</v>
+        <v>28.35878637740055</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.570909534348111</v>
+        <v>17.73786108367449</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>15.80206256295622</v>
+        <v>30.61857662261995</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.93439914944654</v>
+        <v>34.78285789730972</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-5.318757476726191</v>
+        <v>-0.3988078517909166</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.33333276508652</v>
+        <v>18.31793560372177</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.42033352732141</v>
+        <v>26.33554761233685</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-3.689395208078224</v>
+        <v>12.97290537288744</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>11.56981310379646</v>
+        <v>23.23214286233878</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.53167441157053</v>
+        <v>33.35434619132934</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-7.683698514911555</v>
+        <v>-5.833355705441196</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.524753493681239</v>
+        <v>5.527985603237614</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.76904643430689</v>
+        <v>13.67604769592052</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-2.252579332163847</v>
+        <v>-4.189942942471369</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>13.00757981789111</v>
+        <v>22.68030606134246</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.0271885372175</v>
+        <v>36.80147652545631</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.39902137433906</v>
+        <v>25.80803746750509</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.73263045911969</v>
+        <v>39.35838236870548</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.06215929220946</v>
+        <v>47.43921501402518</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>3.428847042970304</v>
+        <v>-1.416037885250351</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.68520005741668</v>
+        <v>22.5676670455397</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.32460016430447</v>
+        <v>35.18717131728302</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>9.128017831059694</v>
+        <v>51.87293270077308</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>10.86281807142896</v>
+        <v>45.04149884775967</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.10509736945834</v>
+        <v>55.3880542500882</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>20.2427465253909</v>
+        <v>58.5627194703516</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-4.124180668650325</v>
+        <v>12.10816824649944</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>13.61897210247525</v>
+        <v>49.38309722703001</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.69941529427583</v>
+        <v>55.14393529608488</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-2.538827938574585</v>
+        <v>19.21371961598358</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>12.78873870335745</v>
+        <v>40.13149325863667</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.74611167569794</v>
+        <v>46.92904521130707</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-6.430447578883388</v>
+        <v>5.71976715893668</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.856107398831128</v>
+        <v>33.45778328592606</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.09572884377292</v>
+        <v>39.59629455170028</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-0.9150627101756328</v>
+        <v>10.70450769808438</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.41273124084208</v>
+        <v>54.06149394301968</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>18.42761488691984</v>
+        <v>64.83038238024618</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>20.75362442739028</v>
+        <v>66.02668498786083</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.09748328889423</v>
+        <v>74.68319658645504</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.43067192354959</v>
+        <v>80.8477455754813</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>4.684439762424034</v>
+        <v>20.24790699859737</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>23.03190026902978</v>
+        <v>66.11700145831001</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.66409616590871</v>
+        <v>73.15039850520706</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>9.437888573039878</v>
+        <v>52.14723075341526</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.16218027182178</v>
+        <v>40.35225858421332</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.40061630091957</v>
+        <v>49.4851857004155</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.53950038217355</v>
+        <v>55.83473792565697</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-3.83751225223395</v>
+        <v>4.665222207340531</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.91378748110944</v>
+        <v>45.29795008804572</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>17.99211120057035</v>
+        <v>53.30468220857807</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-2.262171903377563</v>
+        <v>13.0859110584502</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.06868004813492</v>
+        <v>35.49195345950774</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>17.02410253276361</v>
+        <v>44.15997845868152</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-6.119711352386886</v>
+        <v>2.163039293600736</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.17142576217577</v>
+        <v>31.2142028167535</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>14.4095090788424</v>
+        <v>39.71480415769521</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-0.5941454201957725</v>
+        <v>7.531311823292516</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.7368297841047</v>
+        <v>52.96359747616394</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.74961552158984</v>
+        <v>65.91251629442685</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.06457052628069</v>
+        <v>64.96156856126572</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.40431461033364</v>
+        <v>72.36646938889292</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.73798963396601</v>
+        <v>81.13758953071171</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>4.982578944751097</v>
+        <v>13.75209641488491</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.33796400474964</v>
+        <v>64.3945611721167</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.96735682186974</v>
+        <v>73.49326778081473</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>8.526314071402759</v>
+        <v>46.0921961218442</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>10.2780533489132</v>
+        <v>24.93670197476396</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>16.52071058564272</v>
+        <v>34.97953369650301</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.66345115197351</v>
+        <v>45.6838629066459</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-4.688484912644881</v>
+        <v>0.1765511292144737</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>13.04018243499276</v>
+        <v>36.69170893054458</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.13124070547111</v>
+        <v>48.68548061790769</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-3.080296978876802</v>
+        <v>10.20598695296927</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>12.2370167158242</v>
+        <v>30.6475582140876</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.20352849727872</v>
+        <v>43.90867802230548</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-7.004118775915998</v>
+        <v>0.6026113512370905</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>9.269426011663811</v>
+        <v>24.883021441201</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.5194535396156</v>
+        <v>37.90586331813476</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1.521546636979991</v>
+        <v>3.206910983424514</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>13.79631116444605</v>
+        <v>43.98123735588513</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.82042101814143</v>
+        <v>61.9526818395445</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>20.16339453354381</v>
+        <v>49.92617305413729</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.50821406081011</v>
+        <v>60.82240549476126</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.84708575679944</v>
+        <v>74.58941316893693</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.113225525395606</v>
+        <v>6.650913258366941</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.44712303161519</v>
+        <v>52.71049010111032</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.09078019102785</v>
+        <v>68.83051773920752</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.10122856681792</v>
+        <v>10.86006468708253</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>33.5732966653267</v>
+        <v>19.02252681906712</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>37.53671438023661</v>
+        <v>25.54141296705107</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.14250450633858</v>
+        <v>-1.977623987157056</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.57894217580633</v>
+        <v>16.35951761044727</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>35.79598649703731</v>
+        <v>18.74804553184009</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.05560016073649</v>
+        <v>2.312271689889197</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>37.5362648282206</v>
+        <v>32.27509291591516</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>41.56048868035782</v>
+        <v>35.25628276805614</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>40.3640517002847</v>
+        <v>23.47307440796715</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>47.0632059161035</v>
+        <v>30.88635702970815</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>50.53438269674208</v>
+        <v>32.21444984101199</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.53779306705357</v>
+        <v>7.176496942291525</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>41.57667985617239</v>
+        <v>16.97424304843307</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>46.21937832154937</v>
+        <v>25.82152304213</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.99570818778964</v>
+        <v>11.5714273355906</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.67389821713936</v>
+        <v>23.60381463407459</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>40.83039998694953</v>
+        <v>28.06066704552373</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.38426169668551</v>
+        <v>-2.48199855563497</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.98337337482615</v>
+        <v>9.431042537522831</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>38.4518611468906</v>
+        <v>13.09910862499489</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.62777206875256</v>
+        <v>-2.773785917109191</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>40.3341386797203</v>
+        <v>23.77086510097055</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.40134250109484</v>
+        <v>13.46959521086318</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>34.94865961516717</v>
+        <v>29.86181297814695</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>38.90670033147043</v>
+        <v>33.68872447280596</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.55628459765511</v>
+        <v>2.985661674284582</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.07903159802997</v>
+        <v>33.69607404292189</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.28998699468116</v>
+        <v>34.73180630052768</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.56314959676254</v>
+        <v>8.336284874628838</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.1182125867185</v>
+        <v>50.68506129743172</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.13680753129353</v>
+        <v>51.96375964006943</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.88755413188625</v>
+        <v>51.64943947352212</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>48.59909575025006</v>
+        <v>58.35060309316168</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>52.07545085567013</v>
+        <v>57.57312347636245</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.94812552069517</v>
+        <v>16.60565357414395</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>43.08701105299181</v>
+        <v>43.56475561544168</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>47.72054993998741</v>
+        <v>47.49288561131756</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.30115810901785</v>
+        <v>14.40414969672616</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.05535564396773</v>
+        <v>36.20870089504773</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.20749772792487</v>
+        <v>39.71066816950548</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.80181967797419</v>
+        <v>4.122035938171805</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.48776971725977</v>
+        <v>30.69150523693901</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.95127507599057</v>
+        <v>35.28648882931461</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.14066796311086</v>
+        <v>7.21168458525182</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>41.92222593905603</v>
+        <v>49.37744969000752</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.67740421166041</v>
+        <v>7.882389417973169</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.22860992354333</v>
+        <v>25.09442752657966</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>39.18474615369655</v>
+        <v>30.76845603287013</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.86948562894817</v>
+        <v>1.264328212408405</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.39769734325102</v>
+        <v>32.23266151483244</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.60712302251008</v>
+        <v>35.52136930721429</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.88623530737576</v>
+        <v>6.358947162045489</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.44505609780144</v>
+        <v>49.89034584469066</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.46158901830026</v>
+        <v>53.60437185443904</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.20422473026827</v>
+        <v>52.12837551463404</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.91164958707458</v>
+        <v>57.56694280649891</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>52.38914620058613</v>
+        <v>59.02499079386421</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.24965136839497</v>
+        <v>10.18475044329616</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>43.39817425737517</v>
+        <v>40.2662532431596</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>48.02869548714736</v>
+        <v>45.86362509618907</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.57575064609817</v>
+        <v>8.186947489690422</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.33372174944893</v>
+        <v>30.78570232010372</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>42.4841329297831</v>
+        <v>36.8875091544778</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.11330783003665</v>
+        <v>0.5158187647261592</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.80459256427984</v>
+        <v>27.3515355700407</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.26671709522104</v>
+        <v>35.18657549614782</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.4620251811136</v>
+        <v>3.743671072050024</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.24721250074865</v>
+        <v>47.20144627584992</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.80452103791364</v>
+        <v>4.10888834709877</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.34022300735221</v>
+        <v>18.95860579614561</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>38.30808401390669</v>
+        <v>28.78593564895878</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.92601499577685</v>
+        <v>0.6237097946454391</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.43390367106044</v>
+        <v>27.67783256625282</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.65620714812357</v>
+        <v>35.02092025572775</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>21.89614522590674</v>
+        <v>3.654022017773233</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.43997612980751</v>
+        <v>43.20132087916994</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.46847857052626</v>
+        <v>51.10582020952216</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.23672184449678</v>
+        <v>40.94228566107662</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>47.94840015798057</v>
+        <v>45.88439949346258</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>51.43063636816265</v>
+        <v>51.88214174596796</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.31941777470949</v>
+        <v>6.332816243385107</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.44248725678892</v>
+        <v>32.26196438325172</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>47.08856724349211</v>
+        <v>44.15857480903111</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.70317193552917</v>
+        <v>4.85797757291267</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>37.44552162041465</v>
+        <v>25.15849486992816</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>41.60735775985453</v>
+        <v>34.51379163045066</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.16981547243773</v>
+        <v>-0.3993154072956209</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>34.84073510399077</v>
+        <v>21.68433566048059</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>39.31546825012868</v>
+        <v>32.38127581787867</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.47140914686187</v>
+        <v>-0.6601639789961098</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.2415000844911</v>
+        <v>37.67806729470166</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>44.5376918558601</v>
+        <v>31.40564479132112</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.95992152628955</v>
+        <v>22.17280113148122</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>50.15136643866164</v>
+        <v>35.34770586075847</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>53.65692530386492</v>
+        <v>37.86811609966973</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.23175848395504</v>
+        <v>2.173349486839509</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>45.08683167799952</v>
+        <v>22.69400768569048</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>49.76157597263501</v>
+        <v>28.37834674466801</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.03939186610113</v>
+        <v>11.26743441542283</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>44.3612395802262</v>
+        <v>23.27436179490621</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>48.93995130293014</v>
+        <v>33.20178160197491</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.46179920347418</v>
+        <v>-7.135176704308183</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>41.88199670197078</v>
+        <v>7.86087138895136</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>46.78631486910156</v>
+        <v>14.740904518783</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.75142664054152</v>
+        <v>-7.483615271253459</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>49.06783913800288</v>
+        <v>25.51634565308316</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>53.7204863463226</v>
+        <v>39.13577808151618</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>52.8696454768281</v>
+        <v>28.33677855472325</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>60.20571434066608</v>
+        <v>42.80986454909029</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>63.94844179947105</v>
+        <v>50.36654436899761</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.96793084882695</v>
+        <v>-2.421004882275785</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>54.50494551733415</v>
+        <v>23.98109604769054</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>59.84231511126243</v>
+        <v>35.82806531857486</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.12117376755418</v>
+        <v>57.7071886362439</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.48569254684432</v>
+        <v>53.26111106282124</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.69015545173142</v>
+        <v>63.27458721503322</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>55.20165805490137</v>
+        <v>64.48662481114972</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.64644640084762</v>
+        <v>16.51866570054577</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>46.60377914077169</v>
+        <v>57.77387528751666</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>51.27074911109159</v>
+        <v>60.55147379510511</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.40444266154155</v>
+        <v>17.5729855972874</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.80363551446085</v>
+        <v>41.72660579630271</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>50.37713488146778</v>
+        <v>47.63464890342871</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.94417654283234</v>
+        <v>4.966154340863465</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.45290688597981</v>
+        <v>38.65202227772828</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>48.35173070766233</v>
+        <v>42.96942388042727</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.332440465413</v>
+        <v>8.313743443755236</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>50.72534817068933</v>
+        <v>60.13452795517068</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.37253046082076</v>
+        <v>69.70798890987723</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.46445039491471</v>
+        <v>72.96834306146798</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>61.81270147595788</v>
+        <v>81.67250132563862</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.55952721853046</v>
+        <v>86.88588315475677</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.44988385890282</v>
+        <v>21.28022451551937</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>56.08934779971231</v>
+        <v>72.31423769953024</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>61.41841359008936</v>
+        <v>77.58187602279095</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.44428677758377</v>
+        <v>58.91308366448665</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>44.7992140622632</v>
+        <v>48.98736958502305</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>51.99934883564284</v>
+        <v>57.58643195309767</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>55.51220767374173</v>
+        <v>62.29985314765585</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.94613925149031</v>
+        <v>8.912048713141377</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>46.91282899637213</v>
+        <v>54.13765708124386</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>51.57717161945874</v>
+        <v>59.33496479928853</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.6929879237606</v>
+        <v>11.31288254568535</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.09599026308885</v>
+        <v>37.330844265869</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>50.66708076940119</v>
+        <v>45.22072686287363</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.2707450534668</v>
+        <v>1.678143708480292</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.78478774030624</v>
+        <v>37.03079997164875</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.68161872427946</v>
+        <v>43.8872094670479</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.66920621137766</v>
+        <v>5.517834856594519</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>51.06580863011518</v>
+        <v>59.88552155927871</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>55.71041399859499</v>
+        <v>71.78114930523702</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>54.79200923017238</v>
+        <v>72.724189883245</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.13562698892518</v>
+        <v>79.95270225530489</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>65.88296015535909</v>
+        <v>88.01455154013588</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.76346954148246</v>
+        <v>14.74062008363216</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.4120482792442</v>
+        <v>71.29197656886097</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>61.73774671663707</v>
+        <v>78.78941170820906</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>45.45021658191905</v>
+        <v>52.39328118248645</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.83294573094189</v>
+        <v>31.77145105826642</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>51.03782937772402</v>
+        <v>41.47552366872587</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>54.55498870398091</v>
+        <v>51.22855079585622</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.01639638276166</v>
+        <v>3.622527052500203</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.95773965591106</v>
+        <v>44.63795668321144</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>50.63679381766984</v>
+        <v>54.43237501828185</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.80035174944697</v>
+        <v>9.06879158138582</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.18814779198583</v>
+        <v>33.00316486094399</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.77202323946469</v>
+        <v>46.10416866627524</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.30408182950396</v>
+        <v>0.9767940811556386</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.79827490955148</v>
+        <v>31.04244647348649</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.70890685774491</v>
+        <v>43.07646021785807</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>32.65568102102858</v>
+        <v>1.756712454111131</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.03756168334807</v>
+        <v>50.97189559513537</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.69522526046165</v>
+        <v>68.51894982883599</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>53.80552170290938</v>
+        <v>56.94003437675396</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>61.15480861855991</v>
+        <v>68.12016072607226</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.907972175309</v>
+        <v>81.93456242953248</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.81200636165974</v>
+        <v>7.553817749168406</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>55.43645198344151</v>
+        <v>59.1339806872957</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>60.77853306771517</v>
+        <v>74.59354502614239</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1.716418904591549</v>
+        <v>15.26783878528866</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.78717911918526</v>
+        <v>18.9402854911465</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.48284378354792</v>
+        <v>25.6153234150891</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-1.654149867026462</v>
+        <v>5.166325003723738</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.28544022901728</v>
+        <v>20.98044373562869</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>18.22195887308073</v>
+        <v>23.32179319617104</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>3.643809105594102</v>
+        <v>8.951300623260671</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>18.72295060783419</v>
+        <v>33.15667053011003</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.47619671537931</v>
+        <v>36.47907527268227</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.03180457711223</v>
+        <v>23.42036306730824</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.06980643016891</v>
+        <v>29.66372166205687</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>32.3699698821118</v>
+        <v>32.02482244238849</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>7.346631004222701</v>
+        <v>17.10112861598737</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.58307455398166</v>
+        <v>18.95237168514949</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.97219673860739</v>
+        <v>29.69008136932829</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>4.465247528281893</v>
+        <v>13.88362371960671</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.72917314842763</v>
+        <v>21.98349492325976</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>23.6152548753613</v>
+        <v>27.16606095413302</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.4686830937213813</v>
+        <v>3.451119137752936</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.56172115709849</v>
+        <v>12.67696358872093</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.74412663015216</v>
+        <v>16.65255860399407</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>6.067604363502674</v>
+        <v>0.29349867809416</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.3580023159585</v>
+        <v>21.56275354034699</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2.902740533280522</v>
+        <v>17.11132110999958</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>18.04274644366705</v>
+        <v>28.17060232955292</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>21.73374779337893</v>
+        <v>32.72358959149059</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-0.3627605264343714</v>
+        <v>8.729611866244898</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>15.65626949629314</v>
+        <v>35.81194100094164</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>19.58746648088579</v>
+        <v>37.45164892900529</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>5.021146374377025</v>
+        <v>13.5628930703812</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.16873731934412</v>
+        <v>49.07142689861338</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>23.91709987685268</v>
+        <v>51.30183456452293</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.42617043917402</v>
+        <v>49.4381622161271</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.47553131397562</v>
+        <v>55.26364553760243</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.78048750477823</v>
+        <v>56.00736159231343</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>8.637111676416872</v>
+        <v>26.37512465314589</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.96522635754502</v>
+        <v>43.62393817215516</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.34616151880505</v>
+        <v>50.25358135559517</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>5.656598832994867</v>
+        <v>16.45915212883341</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>20.99052521412884</v>
+        <v>33.3971597569715</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.87289174244658</v>
+        <v>38.08108028767076</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1.763534050014314</v>
+        <v>9.474173803912333</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.93655856875644</v>
+        <v>32.12418195043725</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.11467465443441</v>
+        <v>37.53332976403737</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.449898576313515</v>
+        <v>9.632607858679211</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.80953593858468</v>
+        <v>45.2431801145154</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>3.171367733972716</v>
+        <v>11.58966532561453</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>18.31506500959891</v>
+        <v>23.62164497532338</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.00438675424817</v>
+        <v>29.86149532591361</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-0.05923173284033112</v>
+        <v>6.755084157683164</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>15.96495650622811</v>
+        <v>34.24103386258165</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.8948144886082</v>
+        <v>37.98983930550079</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>5.334636162404507</v>
+        <v>11.34436756513968</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>20.48579390217402</v>
+        <v>48.2001021730615</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>24.23233130312569</v>
+        <v>52.6948623672492</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.73290304744555</v>
+        <v>49.65504633389725</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.77857981897749</v>
+        <v>54.32926237529244</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.08457566397836</v>
+        <v>57.19581687212344</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>8.929119825692908</v>
+        <v>20.029184445831</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.26630344534942</v>
+        <v>40.36138696845947</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.6445292972512</v>
+        <v>48.6178933126356</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>5.923854084422274</v>
+        <v>10.45397905341775</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.26137256344312</v>
+        <v>28.28659011742623</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.14221666644651</v>
+        <v>35.40704376050426</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>2.065459158206977</v>
+        <v>5.902253597960669</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>18.24352919836761</v>
+        <v>28.92054675331892</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.42044138684303</v>
+        <v>37.4191767302345</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.761785760548491</v>
+        <v>6.18466026014589</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.12487853168706</v>
+        <v>43.20292263539649</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>2.340179081572828</v>
+        <v>7.707488677725504</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.46947720969113</v>
+        <v>18.0378809817365</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.16953583468894</v>
+        <v>27.74845502508722</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-0.9567133780983994</v>
+        <v>6.271552009234057</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>15.04860149627866</v>
+        <v>30.56429381152572</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.99027541806693</v>
+        <v>37.57868923567469</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>4.392570855777478</v>
+        <v>8.89701222486779</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>19.52980997107238</v>
+        <v>42.56368943838015</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.28730630083889</v>
+        <v>50.49897186748285</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.81298276705229</v>
+        <v>39.05297530262823</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.86233521489658</v>
+        <v>42.85983803689733</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.17295022311233</v>
+        <v>49.72546000235136</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.044573439865232</v>
+        <v>15.1804666883616</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.3580571991561</v>
+        <v>32.36240351325539</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.750715014773</v>
+        <v>46.18271477355892</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>5.093012119115876</v>
+        <v>7.685670257051839</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>20.41599323204467</v>
+        <v>23.88181049235517</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.30731713731557</v>
+        <v>33.73422885220868</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.168069368000616</v>
+        <v>5.759285909482969</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.327195212487</v>
+        <v>24.78669841438837</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>21.51569758727268</v>
+        <v>35.62094139568052</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.819309098968589</v>
+        <v>2.720782001178673</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.16835362300251</v>
+        <v>35.51676815766665</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.28966820193229</v>
+        <v>30.00487820733154</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.45849031142568</v>
+        <v>18.30144200238276</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.96922487173956</v>
+        <v>30.47913330606868</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.30665365154184</v>
+        <v>34.81860607833849</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.849474176977957</v>
+        <v>6.46413769966318</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.86048722893089</v>
+        <v>19.47053876822616</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.28401363363617</v>
+        <v>27.05016634355983</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>11.31593704144744</v>
+        <v>15.76384613586258</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.16939569078573</v>
+        <v>23.81199642107955</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.42417096529342</v>
+        <v>32.87035203891337</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>7.381649754296809</v>
+        <v>1.944227990150541</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.22478826424022</v>
+        <v>14.25443426083684</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.791559614753</v>
+        <v>20.00391500151692</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.96492103406773</v>
+        <v>-0.4229542273740101</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.81428327015905</v>
+        <v>27.25503340370807</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.13715790378009</v>
+        <v>40.09209408097482</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>35.00667593013914</v>
+        <v>28.52239074627353</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.63935744611349</v>
+        <v>41.17442930420258</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.1721887539842</v>
+        <v>48.20011461694156</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>18.30777216348246</v>
+        <v>6.857882029769989</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.93344585756272</v>
+        <v>24.31816413538689</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.9515137853551</v>
+        <v>36.56682270165794</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.737271386908</v>
+        <v>54.88443643328502</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.8548731461417</v>
+        <v>47.53112158980251</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>33.37757336617896</v>
+        <v>57.08491298933637</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.72054317146413</v>
+        <v>60.46185362499742</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>11.14390816212231</v>
+        <v>21.19156352961848</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.24877486436598</v>
+        <v>52.97256444961666</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.66538598646717</v>
+        <v>58.27064972293539</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>12.563583238566</v>
+        <v>21.98980878193964</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.48820354042377</v>
+        <v>41.01966851758372</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.73852139503298</v>
+        <v>46.74728424526974</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.737667873723986</v>
+        <v>13.17242934013537</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.66227148384747</v>
+        <v>42.57462466929889</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.2243327978935</v>
+        <v>46.52002008314139</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>15.4115120883906</v>
+        <v>14.47815531939204</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.33124089389653</v>
+        <v>59.43819092711433</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.64943832266252</v>
+        <v>69.0305456554478</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.46809134595057</v>
+        <v>70.74649355805678</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.1119176433357</v>
+        <v>78.21933450723434</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.64859932007873</v>
+        <v>83.31868860644157</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>19.66558200070423</v>
+        <v>30.59185111803753</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.38518261193915</v>
+        <v>70.27093342647389</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.3959049323532</v>
+        <v>76.97305856648806</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.05095880239954</v>
+        <v>56.05126125843143</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.15866254479404</v>
+        <v>43.40488874607804</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.67747854342505</v>
+        <v>51.62050214024745</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>37.02169634002119</v>
+        <v>58.3242898201606</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>11.43423769623884</v>
+        <v>13.93722132131306</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.54791708110285</v>
+        <v>49.55851888969131</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.96217603644857</v>
+        <v>57.19222403099529</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.84375361569832</v>
+        <v>16.26184316542065</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.77200321707826</v>
+        <v>37.22879972960802</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.0201965305812</v>
+        <v>44.79117204927779</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.053528919660671</v>
+        <v>10.25460240232414</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.98316607965795</v>
+        <v>41.37229420989539</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.54347530584722</v>
+        <v>47.70008709754464</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.73765577920662</v>
+        <v>12.00457579083539</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.66090320006817</v>
+        <v>59.59689253575374</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.97682393135293</v>
+        <v>71.36583184489022</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.78487876566268</v>
+        <v>70.78357014983193</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>43.42454400588676</v>
+        <v>76.86346518545142</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>46.96170335456307</v>
+        <v>84.66192824781487</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.96874679252858</v>
+        <v>24.65485315993324</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.69695002387557</v>
+        <v>69.63783264893712</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.70465684899723</v>
+        <v>78.48210869231205</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.10511180076479</v>
+        <v>50.772940226854</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.23998167503002</v>
+        <v>28.16639867255989</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.76294647417316</v>
+        <v>36.82862437233848</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.11136066093562</v>
+        <v>48.15367565179859</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.55021730688959</v>
+        <v>8.405950692844282</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.64027364816751</v>
+        <v>40.8675780764089</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.06820151930029</v>
+        <v>52.60298382415422</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>11.99434105061848</v>
+        <v>14.34863702501656</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.90847166620953</v>
+        <v>34.01270897822855</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.16833571086406</v>
+        <v>46.04825895412229</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.134695703368202</v>
+        <v>10.38553192413745</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.04590257274498</v>
+        <v>37.18460267524696</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.61883742171912</v>
+        <v>47.8654809267361</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>14.77397007290961</v>
+        <v>9.166737641303136</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.68355273371645</v>
+        <v>52.62459246473822</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.01138932030245</v>
+        <v>69.22029980123149</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.84753775447357</v>
+        <v>56.8024513866077</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>42.49221729865198</v>
+        <v>66.1785702279065</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>46.03492944439887</v>
+        <v>79.17049998154749</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>19.06468470942762</v>
+        <v>17.27712093326315</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.77041384870901</v>
+        <v>58.60684381447422</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.79326469401815</v>
+        <v>74.42980161722311</v>
       </c>
     </row>
   </sheetData>
